--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Reuniao com o cliente</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Concepção</t>
+  </si>
+  <si>
+    <t>Elaboração</t>
+  </si>
+  <si>
+    <t>Fim da fase de elaboração</t>
+  </si>
+  <si>
+    <t>2 dias</t>
   </si>
 </sst>
 </file>
@@ -162,17 +171,17 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,57 +486,57 @@
   <dimension ref="B3:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:H18"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="3">
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
         <v>41506</v>
       </c>
       <c r="J8" s="1"/>
@@ -541,16 +550,16 @@
         <v>13</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="3">
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
         <v>41506</v>
       </c>
       <c r="J9" s="1"/>
@@ -564,16 +573,16 @@
         <v>13</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="8">
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="3">
+      <c r="I10" s="8">
         <v>41506</v>
       </c>
       <c r="J10" s="1"/>
@@ -587,16 +596,16 @@
         <v>13</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="8">
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="3">
+      <c r="I11" s="8">
         <v>41506</v>
       </c>
       <c r="J11" s="1"/>
@@ -610,16 +619,16 @@
         <v>13</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="8">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="3">
+      <c r="I12" s="8">
         <v>41506</v>
       </c>
       <c r="J12" s="1"/>
@@ -629,55 +638,91 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="8">
+        <v>41520</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="8">
+        <v>41520</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="8">
+        <v>41520</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="8">
+        <v>41522</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -747,6 +792,66 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B3:E3"/>
@@ -763,66 +868,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Reuniao com o cliente</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>2 dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          --</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          -- </t>
   </si>
 </sst>
 </file>
@@ -171,17 +177,17 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,41 +492,41 @@
   <dimension ref="B3:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -536,7 +542,7 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="8">
+      <c r="I8" s="3">
         <v>41506</v>
       </c>
       <c r="J8" s="1"/>
@@ -559,7 +565,7 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="8">
+      <c r="I9" s="3">
         <v>41506</v>
       </c>
       <c r="J9" s="1"/>
@@ -582,7 +588,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="8">
+      <c r="I10" s="3">
         <v>41506</v>
       </c>
       <c r="J10" s="1"/>
@@ -605,7 +611,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="8">
+      <c r="I11" s="3">
         <v>41506</v>
       </c>
       <c r="J11" s="1"/>
@@ -628,7 +634,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="8">
+      <c r="I12" s="3">
         <v>41506</v>
       </c>
       <c r="J12" s="1"/>
@@ -651,7 +657,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="8">
+      <c r="I13" s="3">
         <v>41520</v>
       </c>
       <c r="J13" s="1"/>
@@ -669,10 +675,12 @@
         <v>2</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="8">
+      <c r="I14" s="3">
         <v>41520</v>
       </c>
       <c r="J14" s="1"/>
@@ -690,10 +698,12 @@
         <v>2</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="8">
+      <c r="I15" s="3">
         <v>41520</v>
       </c>
       <c r="J15" s="1"/>
@@ -716,7 +726,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="8">
+      <c r="I16" s="3">
         <v>41522</v>
       </c>
       <c r="J16" s="1"/>
@@ -792,11 +802,61 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K7:L7"/>
@@ -813,61 +873,11 @@
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
